--- a/src/test/resources/testData/TestData-seleniumframework.xlsx
+++ b/src/test/resources/testData/TestData-seleniumframework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SignInSignOut" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="E2:J7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
